--- a/plots/countries/plot data/Lithuania.xlsx
+++ b/plots/countries/plot data/Lithuania.xlsx
@@ -505,7 +505,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="n">
-        <v>8.92271288172823</v>
+        <v>8.70049568800936</v>
       </c>
     </row>
     <row r="3">
@@ -645,7 +645,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>-5.35156436011955</v>
+        <v>-4.33470756169725</v>
       </c>
     </row>
     <row r="10">
@@ -665,7 +665,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="n">
-        <v>1.65226557566276</v>
+        <v>1.34048236469276</v>
       </c>
     </row>
     <row r="11">
@@ -685,7 +685,7 @@
         <v>17</v>
       </c>
       <c r="F11" t="n">
-        <v>8.77035244389148</v>
+        <v>8.54258205508127</v>
       </c>
     </row>
     <row r="12">
@@ -825,7 +825,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>-5.67085796924099</v>
+        <v>-4.92790579825781</v>
       </c>
     </row>
     <row r="19">
@@ -845,7 +845,7 @@
         <v>17</v>
       </c>
       <c r="F19" t="n">
-        <v>1.68072916994513</v>
+        <v>1.36841511173513</v>
       </c>
     </row>
     <row r="20">
@@ -865,7 +865,7 @@
         <v>17</v>
       </c>
       <c r="F20" t="n">
-        <v>6.83081250188224</v>
+        <v>6.60263355311071</v>
       </c>
     </row>
     <row r="21">
@@ -1005,7 +1005,7 @@
         <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>-4.87134788435187</v>
+        <v>-4.22759361048903</v>
       </c>
     </row>
     <row r="28">
@@ -1025,7 +1025,7 @@
         <v>17</v>
       </c>
       <c r="F28" t="n">
-        <v>1.65304581842313</v>
+        <v>1.34107070651313</v>
       </c>
     </row>
     <row r="29">
@@ -1045,7 +1045,7 @@
         <v>17</v>
       </c>
       <c r="F29" t="n">
-        <v>5.47764398109313</v>
+        <v>5.2393784425184</v>
       </c>
     </row>
     <row r="30">
@@ -1185,7 +1185,7 @@
         <v>17</v>
       </c>
       <c r="F36" t="n">
-        <v>-6.40607953096505</v>
+        <v>-5.76078130922467</v>
       </c>
     </row>
     <row r="37">
@@ -1205,7 +1205,7 @@
         <v>17</v>
       </c>
       <c r="F37" t="n">
-        <v>1.68178999381178</v>
+        <v>1.37129047871678</v>
       </c>
     </row>
     <row r="38">
@@ -1225,7 +1225,7 @@
         <v>17</v>
       </c>
       <c r="F38" t="n">
-        <v>4.82548111948936</v>
+        <v>4.60184779284362</v>
       </c>
     </row>
     <row r="39">
@@ -1365,7 +1365,7 @@
         <v>17</v>
       </c>
       <c r="F45" t="n">
-        <v>-5.92047584505173</v>
+        <v>-5.4831415344926</v>
       </c>
     </row>
     <row r="46">
@@ -1385,7 +1385,7 @@
         <v>17</v>
       </c>
       <c r="F46" t="n">
-        <v>1.65556219272107</v>
+        <v>1.34721009636107</v>
       </c>
     </row>
     <row r="47">
@@ -1405,7 +1405,7 @@
         <v>17</v>
       </c>
       <c r="F47" t="n">
-        <v>4.45937976395216</v>
+        <v>4.24125465901212</v>
       </c>
     </row>
     <row r="48">
@@ -1545,7 +1545,7 @@
         <v>17</v>
       </c>
       <c r="F54" t="n">
-        <v>-4.64512517730268</v>
+        <v>-4.26681456618416</v>
       </c>
     </row>
     <row r="55">
@@ -1565,7 +1565,7 @@
         <v>17</v>
       </c>
       <c r="F55" t="n">
-        <v>1.65858905880491</v>
+        <v>1.35260132367491</v>
       </c>
     </row>
     <row r="56">
@@ -1585,7 +1585,7 @@
         <v>17</v>
       </c>
       <c r="F56" t="n">
-        <v>4.58697751848857</v>
+        <v>4.36371306993084</v>
       </c>
     </row>
     <row r="57">
@@ -1725,7 +1725,7 @@
         <v>17</v>
       </c>
       <c r="F63" t="n">
-        <v>0.883651120419883</v>
+        <v>1.05388043056027</v>
       </c>
     </row>
     <row r="64">
@@ -1745,7 +1745,7 @@
         <v>17</v>
       </c>
       <c r="F64" t="n">
-        <v>1.65570262802977</v>
+        <v>1.35203262793477</v>
       </c>
     </row>
     <row r="65">
@@ -1765,7 +1765,7 @@
         <v>17</v>
       </c>
       <c r="F65" t="n">
-        <v>4.61390643688698</v>
+        <v>4.39620183060412</v>
       </c>
     </row>
     <row r="66">
@@ -1905,7 +1905,7 @@
         <v>17</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.33068387310874</v>
+        <v>-0.352409177083417</v>
       </c>
     </row>
     <row r="73">
@@ -1925,7 +1925,7 @@
         <v>17</v>
       </c>
       <c r="F73" t="n">
-        <v>1.67405532701956</v>
+        <v>1.37261765086456</v>
       </c>
     </row>
     <row r="74">
@@ -1945,7 +1945,7 @@
         <v>17</v>
       </c>
       <c r="F74" t="n">
-        <v>4.45114902265847</v>
+        <v>4.2412578803748</v>
       </c>
     </row>
     <row r="75">
@@ -2085,7 +2085,7 @@
         <v>17</v>
       </c>
       <c r="F81" t="n">
-        <v>-7.9200222296869</v>
+        <v>-8.06969943727495</v>
       </c>
     </row>
     <row r="82">
@@ -2105,7 +2105,7 @@
         <v>17</v>
       </c>
       <c r="F82" t="n">
-        <v>1.6547771982543</v>
+        <v>1.3555153549893</v>
       </c>
     </row>
     <row r="83">
@@ -2125,7 +2125,7 @@
         <v>17</v>
       </c>
       <c r="F83" t="n">
-        <v>4.16959152192098</v>
+        <v>3.94491445523398</v>
       </c>
     </row>
     <row r="84">
@@ -2265,7 +2265,7 @@
         <v>17</v>
       </c>
       <c r="F90" t="n">
-        <v>-7.23543901149485</v>
+        <v>-7.47383571492553</v>
       </c>
     </row>
     <row r="91">
@@ -2285,7 +2285,7 @@
         <v>17</v>
       </c>
       <c r="F91" t="n">
-        <v>1.64070796487357</v>
+        <v>1.34652915595546</v>
       </c>
     </row>
     <row r="92">
@@ -2305,7 +2305,7 @@
         <v>17</v>
       </c>
       <c r="F92" t="n">
-        <v>3.96100396281712</v>
+        <v>3.74311604995964</v>
       </c>
     </row>
     <row r="93">
@@ -2445,7 +2445,7 @@
         <v>17</v>
       </c>
       <c r="F99" t="n">
-        <v>-9.52499749339663</v>
+        <v>-9.81619957839966</v>
       </c>
     </row>
     <row r="100">
@@ -2465,7 +2465,7 @@
         <v>17</v>
       </c>
       <c r="F100" t="n">
-        <v>1.63912821992043</v>
+        <v>1.3554047120023</v>
       </c>
     </row>
     <row r="101">
@@ -2485,7 +2485,7 @@
         <v>17</v>
       </c>
       <c r="F101" t="n">
-        <v>3.79145359455738</v>
+        <v>3.58133476458515</v>
       </c>
     </row>
     <row r="102">
@@ -2625,7 +2625,7 @@
         <v>17</v>
       </c>
       <c r="F108" t="n">
-        <v>-7.35308168394126</v>
+        <v>-7.65923741024106</v>
       </c>
     </row>
     <row r="109">
@@ -2645,7 +2645,7 @@
         <v>17</v>
       </c>
       <c r="F109" t="n">
-        <v>1.67251931526522</v>
+        <v>1.39888002597041</v>
       </c>
     </row>
     <row r="110">
@@ -2665,7 +2665,7 @@
         <v>17</v>
       </c>
       <c r="F110" t="n">
-        <v>3.92945612973713</v>
+        <v>3.71333803921567</v>
       </c>
     </row>
     <row r="111">
@@ -2805,7 +2805,7 @@
         <v>17</v>
       </c>
       <c r="F117" t="n">
-        <v>-6.39951073212789</v>
+        <v>-6.78130667102683</v>
       </c>
     </row>
     <row r="118">
@@ -2825,7 +2825,7 @@
         <v>17</v>
       </c>
       <c r="F118" t="n">
-        <v>1.67058525497126</v>
+        <v>1.40417148934407</v>
       </c>
     </row>
     <row r="119">
@@ -2845,7 +2845,7 @@
         <v>17</v>
       </c>
       <c r="F119" t="n">
-        <v>4.01576896764587</v>
+        <v>3.81150013650475</v>
       </c>
     </row>
     <row r="120">
@@ -2985,7 +2985,7 @@
         <v>17</v>
       </c>
       <c r="F126" t="n">
-        <v>-5.6339562332147</v>
+        <v>-6.11470722820716</v>
       </c>
     </row>
     <row r="127">
@@ -3005,7 +3005,7 @@
         <v>17</v>
       </c>
       <c r="F127" t="n">
-        <v>1.66250773270913</v>
+        <v>1.41367010699808</v>
       </c>
     </row>
     <row r="128">
@@ -3025,7 +3025,7 @@
         <v>17</v>
       </c>
       <c r="F128" t="n">
-        <v>4.06309099475525</v>
+        <v>3.85362192504085</v>
       </c>
     </row>
     <row r="129">
@@ -3165,7 +3165,7 @@
         <v>17</v>
       </c>
       <c r="F135" t="n">
-        <v>-5.09030417522664</v>
+        <v>-5.6665720623727</v>
       </c>
     </row>
     <row r="136">
@@ -3185,7 +3185,7 @@
         <v>17</v>
       </c>
       <c r="F136" t="n">
-        <v>1.6285272030942</v>
+        <v>1.39181156223075</v>
       </c>
     </row>
     <row r="137">
@@ -3205,7 +3205,7 @@
         <v>17</v>
       </c>
       <c r="F137" t="n">
-        <v>4.07404254012352</v>
+        <v>3.86731723169782</v>
       </c>
     </row>
     <row r="138">
@@ -3345,7 +3345,7 @@
         <v>17</v>
       </c>
       <c r="F144" t="n">
-        <v>-4.19364533625544</v>
+        <v>-4.88268361395357</v>
       </c>
     </row>
     <row r="145">
@@ -3365,7 +3365,7 @@
         <v>17</v>
       </c>
       <c r="F145" t="n">
-        <v>1.58435500569069</v>
+        <v>1.35990611487069</v>
       </c>
     </row>
     <row r="146">
@@ -3385,7 +3385,7 @@
         <v>17</v>
       </c>
       <c r="F146" t="n">
-        <v>4.08680910496839</v>
+        <v>3.86509310735462</v>
       </c>
     </row>
     <row r="147">
@@ -3525,7 +3525,7 @@
         <v>17</v>
       </c>
       <c r="F153" t="n">
-        <v>-3.78749778047276</v>
+        <v>-4.39465966412812</v>
       </c>
     </row>
     <row r="154">
@@ -3545,7 +3545,7 @@
         <v>17</v>
       </c>
       <c r="F154" t="n">
-        <v>1.54535527375873</v>
+        <v>1.34320162975873</v>
       </c>
     </row>
     <row r="155">
@@ -3565,7 +3565,7 @@
         <v>17</v>
       </c>
       <c r="F155" t="n">
-        <v>4.18407978901797</v>
+        <v>3.97838887582362</v>
       </c>
     </row>
     <row r="156">
@@ -3705,7 +3705,7 @@
         <v>17</v>
       </c>
       <c r="F162" t="n">
-        <v>-5.61985182916335</v>
+        <v>-6.11732197233859</v>
       </c>
     </row>
     <row r="163">
@@ -3725,7 +3725,7 @@
         <v>17</v>
       </c>
       <c r="F163" t="n">
-        <v>1.51560007641927</v>
+        <v>1.31774750919927</v>
       </c>
     </row>
     <row r="164">
@@ -3745,7 +3745,7 @@
         <v>17</v>
       </c>
       <c r="F164" t="n">
-        <v>4.10674491041308</v>
+        <v>3.89628326827957</v>
       </c>
     </row>
     <row r="165">
@@ -3865,7 +3865,7 @@
         <v>17</v>
       </c>
       <c r="F170" t="n">
-        <v>4.86583063331825</v>
+        <v>4.86544143616445</v>
       </c>
     </row>
     <row r="171">
@@ -3885,7 +3885,7 @@
         <v>17</v>
       </c>
       <c r="F171" t="n">
-        <v>-6.3035990179083</v>
+        <v>-6.67997838255507</v>
       </c>
     </row>
     <row r="172">
@@ -3905,7 +3905,7 @@
         <v>17</v>
       </c>
       <c r="F172" t="n">
-        <v>1.42404429423489</v>
+        <v>1.21095819870489</v>
       </c>
     </row>
     <row r="173">
@@ -3925,7 +3925,7 @@
         <v>17</v>
       </c>
       <c r="F173" t="n">
-        <v>4.16530840597139</v>
+        <v>3.95017387590052</v>
       </c>
     </row>
     <row r="174">
@@ -4045,7 +4045,7 @@
         <v>17</v>
       </c>
       <c r="F179" t="n">
-        <v>2.00579610747387</v>
+        <v>2.00556230322458</v>
       </c>
     </row>
     <row r="180">
@@ -4065,7 +4065,7 @@
         <v>17</v>
       </c>
       <c r="F180" t="n">
-        <v>-7.26637539613222</v>
+        <v>-7.46758179049799</v>
       </c>
     </row>
     <row r="181">
@@ -4085,7 +4085,7 @@
         <v>17</v>
       </c>
       <c r="F181" t="n">
-        <v>1.39560498348605</v>
+        <v>1.19550592740605</v>
       </c>
     </row>
     <row r="182">
@@ -4105,7 +4105,7 @@
         <v>17</v>
       </c>
       <c r="F182" t="n">
-        <v>4.12434244145341</v>
+        <v>3.91013264045566</v>
       </c>
     </row>
     <row r="183">
@@ -4225,7 +4225,7 @@
         <v>17</v>
       </c>
       <c r="F188" t="n">
-        <v>2.00726568476201</v>
+        <v>2.00592439687351</v>
       </c>
     </row>
     <row r="189">
@@ -4245,7 +4245,7 @@
         <v>17</v>
       </c>
       <c r="F189" t="n">
-        <v>-10.4299449561373</v>
+        <v>-10.7075522708433</v>
       </c>
     </row>
     <row r="190">
@@ -4265,7 +4265,7 @@
         <v>17</v>
       </c>
       <c r="F190" t="n">
-        <v>1.36948841702573</v>
+        <v>1.18566788936573</v>
       </c>
     </row>
     <row r="191">
@@ -4285,7 +4285,7 @@
         <v>17</v>
       </c>
       <c r="F191" t="n">
-        <v>4.1558824710286</v>
+        <v>3.94403104348567</v>
       </c>
     </row>
     <row r="192">
@@ -4405,7 +4405,7 @@
         <v>17</v>
       </c>
       <c r="F197" t="n">
-        <v>3.26592021066853</v>
+        <v>3.26452215263896</v>
       </c>
     </row>
     <row r="198">
@@ -4425,7 +4425,7 @@
         <v>17</v>
       </c>
       <c r="F198" t="n">
-        <v>-10.5325081975534</v>
+        <v>-10.6681163034818</v>
       </c>
     </row>
     <row r="199">
@@ -4445,7 +4445,7 @@
         <v>17</v>
       </c>
       <c r="F199" t="n">
-        <v>1.30035339135164</v>
+        <v>1.11865203690164</v>
       </c>
     </row>
     <row r="200">
@@ -4465,7 +4465,7 @@
         <v>17</v>
       </c>
       <c r="F200" t="n">
-        <v>4.21046140408749</v>
+        <v>3.99046691242128</v>
       </c>
     </row>
     <row r="201">
@@ -4585,7 +4585,7 @@
         <v>17</v>
       </c>
       <c r="F206" t="n">
-        <v>3.1837979633628</v>
+        <v>3.18208167554592</v>
       </c>
     </row>
     <row r="207">
@@ -4605,7 +4605,7 @@
         <v>17</v>
       </c>
       <c r="F207" t="n">
-        <v>-10.0965022825842</v>
+        <v>-10.0741200810268</v>
       </c>
     </row>
     <row r="208">
@@ -4625,7 +4625,7 @@
         <v>17</v>
       </c>
       <c r="F208" t="n">
-        <v>1.26476531990673</v>
+        <v>1.09850202678003</v>
       </c>
     </row>
     <row r="209">
@@ -4645,7 +4645,7 @@
         <v>17</v>
       </c>
       <c r="F209" t="n">
-        <v>4.1803677115277</v>
+        <v>3.96310917064192</v>
       </c>
     </row>
     <row r="210">
@@ -4665,7 +4665,7 @@
         <v>17</v>
       </c>
       <c r="F210" t="n">
-        <v>1.5238220386</v>
+        <v>1.5167396719324</v>
       </c>
     </row>
     <row r="211">
@@ -4725,7 +4725,7 @@
         <v>17</v>
       </c>
       <c r="F213" t="n">
-        <v>3.8511721385</v>
+        <v>3.8469297885</v>
       </c>
     </row>
     <row r="214">
@@ -4765,7 +4765,7 @@
         <v>17</v>
       </c>
       <c r="F215" t="n">
-        <v>2.73537037441812</v>
+        <v>2.73309400325574</v>
       </c>
     </row>
     <row r="216">
@@ -4785,7 +4785,7 @@
         <v>17</v>
       </c>
       <c r="F216" t="n">
-        <v>-9.5221752748371</v>
+        <v>-9.35703371797623</v>
       </c>
     </row>
     <row r="217">
@@ -4805,7 +4805,7 @@
         <v>17</v>
       </c>
       <c r="F217" t="n">
-        <v>1.2368316361555</v>
+        <v>1.0722424544524</v>
       </c>
     </row>
     <row r="218">
@@ -4825,7 +4825,7 @@
         <v>17</v>
       </c>
       <c r="F218" t="n">
-        <v>4.37764562792921</v>
+        <v>4.15844331202136</v>
       </c>
     </row>
     <row r="219">
@@ -4845,7 +4845,7 @@
         <v>17</v>
       </c>
       <c r="F219" t="n">
-        <v>1.4347726257</v>
+        <v>1.4213682998112</v>
       </c>
     </row>
     <row r="220">
@@ -4905,7 +4905,7 @@
         <v>17</v>
       </c>
       <c r="F222" t="n">
-        <v>3.1770365645</v>
+        <v>3.1699751045</v>
       </c>
     </row>
     <row r="223">
@@ -4945,7 +4945,7 @@
         <v>17</v>
       </c>
       <c r="F224" t="n">
-        <v>2.87227647953981</v>
+        <v>2.86615712541982</v>
       </c>
     </row>
     <row r="225">
@@ -4965,7 +4965,7 @@
         <v>17</v>
       </c>
       <c r="F225" t="n">
-        <v>-8.76991367512628</v>
+        <v>-8.45500066064145</v>
       </c>
     </row>
     <row r="226">
@@ -4985,7 +4985,7 @@
         <v>17</v>
       </c>
       <c r="F226" t="n">
-        <v>1.1749739093893</v>
+        <v>1.02469990354218</v>
       </c>
     </row>
     <row r="227">
@@ -5005,7 +5005,7 @@
         <v>17</v>
       </c>
       <c r="F227" t="n">
-        <v>4.44817932498292</v>
+        <v>4.23982691222688</v>
       </c>
     </row>
     <row r="228">
@@ -5025,7 +5025,7 @@
         <v>17</v>
       </c>
       <c r="F228" t="n">
-        <v>1.3175223731</v>
+        <v>1.2980742847088</v>
       </c>
     </row>
     <row r="229">
@@ -5085,7 +5085,7 @@
         <v>17</v>
       </c>
       <c r="F231" t="n">
-        <v>3.155137271</v>
+        <v>3.1469645700683</v>
       </c>
     </row>
     <row r="232">
@@ -5125,7 +5125,7 @@
         <v>17</v>
       </c>
       <c r="F233" t="n">
-        <v>3.1791611032399</v>
+        <v>3.16979543780182</v>
       </c>
     </row>
     <row r="234">
@@ -5145,7 +5145,7 @@
         <v>17</v>
       </c>
       <c r="F234" t="n">
-        <v>-7.93504197137403</v>
+        <v>-7.44585262347808</v>
       </c>
     </row>
     <row r="235">
@@ -5165,7 +5165,7 @@
         <v>17</v>
       </c>
       <c r="F235" t="n">
-        <v>1.11574560077916</v>
+        <v>0.980790555635013</v>
       </c>
     </row>
     <row r="236">
@@ -5185,7 +5185,7 @@
         <v>17</v>
       </c>
       <c r="F236" t="n">
-        <v>4.35274270819308</v>
+        <v>4.14596649971885</v>
       </c>
     </row>
     <row r="237">
@@ -5205,7 +5205,7 @@
         <v>17</v>
       </c>
       <c r="F237" t="n">
-        <v>1.4459993133</v>
+        <v>1.420315281864</v>
       </c>
     </row>
     <row r="238">
@@ -5265,7 +5265,7 @@
         <v>17</v>
       </c>
       <c r="F240" t="n">
-        <v>2.961479398</v>
+        <v>2.94304428435854</v>
       </c>
     </row>
     <row r="241">
@@ -5305,7 +5305,7 @@
         <v>17</v>
       </c>
       <c r="F242" t="n">
-        <v>3.03776315793032</v>
+        <v>3.02477894439705</v>
       </c>
     </row>
     <row r="243">
@@ -5325,7 +5325,7 @@
         <v>17</v>
       </c>
       <c r="F243" t="n">
-        <v>-7.13588946405352</v>
+        <v>-6.53220757752782</v>
       </c>
     </row>
     <row r="244">
@@ -5345,7 +5345,7 @@
         <v>17</v>
       </c>
       <c r="F244" t="n">
-        <v>1.09647517970084</v>
+        <v>0.969124923064388</v>
       </c>
     </row>
     <row r="245">
@@ -5365,7 +5365,7 @@
         <v>17</v>
       </c>
       <c r="F245" t="n">
-        <v>4.30776008777838</v>
+        <v>4.0948612456246</v>
       </c>
     </row>
     <row r="246">
@@ -5385,7 +5385,7 @@
         <v>17</v>
       </c>
       <c r="F246" t="n">
-        <v>1.5357821035</v>
+        <v>1.504995697717</v>
       </c>
     </row>
     <row r="247">
@@ -5445,7 +5445,7 @@
         <v>17</v>
       </c>
       <c r="F249" t="n">
-        <v>2.5799283885</v>
+        <v>2.57341023486395</v>
       </c>
     </row>
     <row r="250">
@@ -5485,7 +5485,7 @@
         <v>17</v>
       </c>
       <c r="F251" t="n">
-        <v>3.27686377813014</v>
+        <v>3.26024589621911</v>
       </c>
     </row>
     <row r="252">
@@ -5505,7 +5505,7 @@
         <v>17</v>
       </c>
       <c r="F252" t="n">
-        <v>-6.55297964222691</v>
+        <v>-5.87947117804407</v>
       </c>
     </row>
     <row r="253">
@@ -5525,7 +5525,7 @@
         <v>17</v>
       </c>
       <c r="F253" t="n">
-        <v>1.08685271864071</v>
+        <v>0.962415524951205</v>
       </c>
     </row>
     <row r="254">
@@ -5545,7 +5545,7 @@
         <v>17</v>
       </c>
       <c r="F254" t="n">
-        <v>4.18581203173067</v>
+        <v>3.96177654559512</v>
       </c>
     </row>
     <row r="255">
@@ -5565,7 +5565,7 @@
         <v>17</v>
       </c>
       <c r="F255" t="n">
-        <v>1.5794188283</v>
+        <v>1.541668580744</v>
       </c>
     </row>
     <row r="256">
@@ -5625,7 +5625,7 @@
         <v>17</v>
       </c>
       <c r="F258" t="n">
-        <v>2.456159576</v>
+        <v>2.4383380673913</v>
       </c>
     </row>
     <row r="259">
@@ -5665,7 +5665,7 @@
         <v>17</v>
       </c>
       <c r="F260" t="n">
-        <v>2.84481577829447</v>
+        <v>2.8223293211966</v>
       </c>
     </row>
     <row r="261">
@@ -5685,7 +5685,7 @@
         <v>17</v>
       </c>
       <c r="F261" t="n">
-        <v>-5.73902111349633</v>
+        <v>-4.79415483793287</v>
       </c>
     </row>
     <row r="262">
@@ -5705,7 +5705,7 @@
         <v>17</v>
       </c>
       <c r="F262" t="n">
-        <v>0.965799730272354</v>
+        <v>0.851852722464798</v>
       </c>
     </row>
     <row r="263">
@@ -5725,7 +5725,7 @@
         <v>17</v>
       </c>
       <c r="F263" t="n">
-        <v>4.19885991098774</v>
+        <v>3.96988742482644</v>
       </c>
     </row>
     <row r="264">
@@ -5745,7 +5745,7 @@
         <v>17</v>
       </c>
       <c r="F264" t="n">
-        <v>1.5056966067</v>
+        <v>1.4633551128004</v>
       </c>
     </row>
     <row r="265">
@@ -5805,7 +5805,7 @@
         <v>17</v>
       </c>
       <c r="F267" t="n">
-        <v>2.27778452709</v>
+        <v>2.25958347709</v>
       </c>
     </row>
     <row r="268">
@@ -5845,7 +5845,7 @@
         <v>17</v>
       </c>
       <c r="F269" t="n">
-        <v>3.07232559664106</v>
+        <v>3.04686237125053</v>
       </c>
     </row>
     <row r="270">
@@ -5865,7 +5865,7 @@
         <v>17</v>
       </c>
       <c r="F270" t="n">
-        <v>-5.92486248319363</v>
+        <v>-5.1117082878474</v>
       </c>
     </row>
     <row r="271">
@@ -5885,7 +5885,7 @@
         <v>17</v>
       </c>
       <c r="F271" t="n">
-        <v>0.924142504199221</v>
+        <v>0.813633961397872</v>
       </c>
     </row>
     <row r="272">
@@ -5905,7 +5905,7 @@
         <v>17</v>
       </c>
       <c r="F272" t="n">
-        <v>4.40089322444435</v>
+        <v>4.17000379863584</v>
       </c>
     </row>
     <row r="273">
@@ -5925,7 +5925,7 @@
         <v>17</v>
       </c>
       <c r="F273" t="n">
-        <v>1.4178831841</v>
+        <v>1.3691151593176</v>
       </c>
     </row>
     <row r="274">
@@ -5985,7 +5985,7 @@
         <v>17</v>
       </c>
       <c r="F276" t="n">
-        <v>2.64646638</v>
+        <v>2.62109439</v>
       </c>
     </row>
     <row r="277">
@@ -6025,7 +6025,7 @@
         <v>17</v>
       </c>
       <c r="F278" t="n">
-        <v>2.87838002240337</v>
+        <v>2.85394830401359</v>
       </c>
     </row>
     <row r="279">
@@ -6045,7 +6045,7 @@
         <v>17</v>
       </c>
       <c r="F279" t="n">
-        <v>-6.09118498065927</v>
+        <v>-5.17200205688611</v>
       </c>
     </row>
     <row r="280">
@@ -6065,7 +6065,7 @@
         <v>17</v>
       </c>
       <c r="F280" t="n">
-        <v>0.897480847034945</v>
+        <v>0.78889584890372</v>
       </c>
     </row>
     <row r="281">
@@ -6085,7 +6085,7 @@
         <v>17</v>
       </c>
       <c r="F281" t="n">
-        <v>4.3145278761525</v>
+        <v>4.08284734503693</v>
       </c>
     </row>
     <row r="282">
@@ -6105,7 +6105,7 @@
         <v>17</v>
       </c>
       <c r="F282" t="n">
-        <v>1.6018116533</v>
+        <v>1.5469850154788</v>
       </c>
     </row>
     <row r="283">
@@ -6165,7 +6165,7 @@
         <v>17</v>
       </c>
       <c r="F285" t="n">
-        <v>2.784115048</v>
+        <v>2.751380528</v>
       </c>
     </row>
     <row r="286">
@@ -6205,7 +6205,7 @@
         <v>17</v>
       </c>
       <c r="F287" t="n">
-        <v>2.74535562539197</v>
+        <v>2.7189726578146</v>
       </c>
     </row>
     <row r="288">
@@ -6225,7 +6225,7 @@
         <v>17</v>
       </c>
       <c r="F288" t="n">
-        <v>-5.52244859525085</v>
+        <v>-5.41147457621073</v>
       </c>
     </row>
     <row r="289">
@@ -6245,7 +6245,7 @@
         <v>17</v>
       </c>
       <c r="F289" t="n">
-        <v>0.858979189505601</v>
+        <v>0.751116730470039</v>
       </c>
     </row>
     <row r="290">
@@ -6265,7 +6265,7 @@
         <v>17</v>
       </c>
       <c r="F290" t="n">
-        <v>4.05875857181047</v>
+        <v>3.79406479485954</v>
       </c>
     </row>
     <row r="291">
@@ -6285,7 +6285,7 @@
         <v>17</v>
       </c>
       <c r="F291" t="n">
-        <v>1.5773035802</v>
+        <v>1.51908706653</v>
       </c>
     </row>
     <row r="292">
@@ -6345,7 +6345,7 @@
         <v>17</v>
       </c>
       <c r="F294" t="n">
-        <v>2.529583709</v>
+        <v>2.497287109</v>
       </c>
     </row>
     <row r="295">
@@ -6365,7 +6365,7 @@
         <v>17</v>
       </c>
       <c r="F295" t="n">
-        <v>6.01135175236509</v>
+        <v>6.01156214236509</v>
       </c>
     </row>
     <row r="296">
@@ -6385,7 +6385,7 @@
         <v>17</v>
       </c>
       <c r="F296" t="n">
-        <v>2.28168568947887</v>
+        <v>2.24100625884946</v>
       </c>
     </row>
     <row r="297">
@@ -6405,7 +6405,7 @@
         <v>17</v>
       </c>
       <c r="F297" t="n">
-        <v>-6.37469875614261</v>
+        <v>-5.8244743865288</v>
       </c>
     </row>
     <row r="298">
@@ -6425,7 +6425,187 @@
         <v>17</v>
       </c>
       <c r="F298" t="n">
-        <v>0.820819911965601</v>
+        <v>0.706745373167533</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>14</v>
+      </c>
+      <c r="B299" t="s">
+        <v>15</v>
+      </c>
+      <c r="C299" t="s">
+        <v>16</v>
+      </c>
+      <c r="D299" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E299" t="s">
+        <v>17</v>
+      </c>
+      <c r="F299" t="n">
+        <v>3.70759338566781</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>14</v>
+      </c>
+      <c r="B300" t="s">
+        <v>15</v>
+      </c>
+      <c r="C300" t="s">
+        <v>18</v>
+      </c>
+      <c r="D300" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E300" t="s">
+        <v>17</v>
+      </c>
+      <c r="F300" t="n">
+        <v>1.4317764758</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>14</v>
+      </c>
+      <c r="B301" t="s">
+        <v>15</v>
+      </c>
+      <c r="C301" t="s">
+        <v>19</v>
+      </c>
+      <c r="D301" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E301" t="s">
+        <v>17</v>
+      </c>
+      <c r="F301" t="n">
+        <v>0.30802601838974</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>14</v>
+      </c>
+      <c r="B302" t="s">
+        <v>15</v>
+      </c>
+      <c r="C302" t="s">
+        <v>20</v>
+      </c>
+      <c r="D302" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E302" t="s">
+        <v>17</v>
+      </c>
+      <c r="F302" t="n">
+        <v>1.08724075054909</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>14</v>
+      </c>
+      <c r="B303" t="s">
+        <v>15</v>
+      </c>
+      <c r="C303" t="s">
+        <v>21</v>
+      </c>
+      <c r="D303" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E303" t="s">
+        <v>17</v>
+      </c>
+      <c r="F303" t="n">
+        <v>2.407223825</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>14</v>
+      </c>
+      <c r="B304" t="s">
+        <v>15</v>
+      </c>
+      <c r="C304" t="s">
+        <v>22</v>
+      </c>
+      <c r="D304" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E304" t="s">
+        <v>17</v>
+      </c>
+      <c r="F304" t="n">
+        <v>6.14672810119789</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>14</v>
+      </c>
+      <c r="B305" t="s">
+        <v>15</v>
+      </c>
+      <c r="C305" t="s">
+        <v>23</v>
+      </c>
+      <c r="D305" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E305" t="s">
+        <v>17</v>
+      </c>
+      <c r="F305" t="n">
+        <v>2.0494078153735</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>14</v>
+      </c>
+      <c r="B306" t="s">
+        <v>15</v>
+      </c>
+      <c r="C306" t="s">
+        <v>24</v>
+      </c>
+      <c r="D306" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E306" t="s">
+        <v>17</v>
+      </c>
+      <c r="F306" t="n">
+        <v>-5.25467818621514</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>14</v>
+      </c>
+      <c r="B307" t="s">
+        <v>15</v>
+      </c>
+      <c r="C307" t="s">
+        <v>25</v>
+      </c>
+      <c r="D307" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E307" t="s">
+        <v>17</v>
+      </c>
+      <c r="F307" t="n">
+        <v>0.71174623217908</v>
       </c>
     </row>
   </sheetData>
